--- a/exradars.xlsx
+++ b/exradars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\GITy\whoscoredradars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDDCF4F-FEE3-4769-8408-E70AC488CC09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA440503-2BD9-4972-ADC4-5FB20ABF0D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2175" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="U7:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
